--- a/data/list_of_designated_collection_bag_dealers/data.xlsx
+++ b/data/list_of_designated_collection_bag_dealers/data.xlsx
@@ -433,7 +433,7 @@
         <v>134.06561992424602</v>
       </c>
       <c r="D2" t="str">
-        <v>Ａ－プライス高松店</v>
+        <v>Ａ−プライス高松店</v>
       </c>
       <c r="E2" t="str">
         <v>上福岡町906番地1</v>
@@ -5027,16 +5027,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="str">
-        <v>34.27368560402247</v>
+        <v>34.27421231</v>
       </c>
       <c r="C232" t="str">
-        <v>134.10504251919858</v>
+        <v>134.10479837</v>
       </c>
       <c r="D232" t="str">
         <v>十河コミュニティセンター</v>
       </c>
       <c r="E232" t="str">
-        <v>十川西町579番地1</v>
+        <v>十川西町299-1</v>
       </c>
       <c r="F232" t="str">
         <v>848-0166</v>

--- a/data/list_of_designated_collection_bag_dealers/data.xlsx
+++ b/data/list_of_designated_collection_bag_dealers/data.xlsx
@@ -5027,10 +5027,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="str">
-        <v>34.27421231</v>
+        <v>34.2740</v>
       </c>
       <c r="C232" t="str">
-        <v>134.10479837</v>
+        <v>134.1048</v>
       </c>
       <c r="D232" t="str">
         <v>十河コミュニティセンター</v>

--- a/data/list_of_designated_collection_bag_dealers/data.xlsx
+++ b/data/list_of_designated_collection_bag_dealers/data.xlsx
@@ -493,7 +493,7 @@
         <v>134.03321476398693</v>
       </c>
       <c r="D5" t="str">
-        <v>ＤＣＭダイキ　香川店</v>
+        <v>ＤＣＭ　香川店</v>
       </c>
       <c r="E5" t="str">
         <v>香川町大野76番地1</v>
@@ -513,7 +513,7 @@
         <v>134.06603605294347</v>
       </c>
       <c r="D6" t="str">
-        <v>ＤＣＭダイキ　上福岡店</v>
+        <v>ＤＣＭ上福岡店</v>
       </c>
       <c r="E6" t="str">
         <v>上福岡町838番地1</v>
@@ -533,7 +533,7 @@
         <v>134.10103363519164</v>
       </c>
       <c r="D7" t="str">
-        <v>ＤＣＭダイキ　川島店</v>
+        <v>ＤＣＭ　川島店</v>
       </c>
       <c r="E7" t="str">
         <v>川島東町504番地</v>
@@ -553,7 +553,7 @@
         <v>134.00748528362672</v>
       </c>
       <c r="D8" t="str">
-        <v>ＤＣＭダイキ　香西店</v>
+        <v>ＤＣＭ　香西店</v>
       </c>
       <c r="E8" t="str">
         <v>香西東町350番地1</v>
@@ -573,7 +573,7 @@
         <v>133.96144068362537</v>
       </c>
       <c r="D9" t="str">
-        <v>ＤＣＭダイキ　国分寺店</v>
+        <v>ＤＣＭ　国分寺店</v>
       </c>
       <c r="E9" t="str">
         <v>国分寺町新名574番地3</v>
@@ -593,7 +593,7 @@
         <v>134.09302062964986</v>
       </c>
       <c r="D10" t="str">
-        <v>ＤＣＭダイキ　水田店</v>
+        <v>ＤＣＭ　水田店</v>
       </c>
       <c r="E10" t="str">
         <v>東山崎町291番地1</v>
@@ -613,7 +613,7 @@
         <v>134.13158406828524</v>
       </c>
       <c r="D11" t="str">
-        <v>ＤＣＭダイキ　牟礼店</v>
+        <v>ＤＣＭ　牟礼店</v>
       </c>
       <c r="E11" t="str">
         <v>牟礼町牟礼1018番地</v>
@@ -693,7 +693,7 @@
         <v>134.0545937836291</v>
       </c>
       <c r="D15" t="str">
-        <v>ＪＡ香川県　男木出張所</v>
+        <v>ＪＡ香川県　よりそいプラザ男木</v>
       </c>
       <c r="E15" t="str">
         <v>男木町129番地3</v>
@@ -713,7 +713,7 @@
         <v>134.0502391989696</v>
       </c>
       <c r="D16" t="str">
-        <v>ＪＡ香川県　女木出張所</v>
+        <v>ＪＡ香川県　よりそいプラザ女木</v>
       </c>
       <c r="E16" t="str">
         <v>女木町11番地</v>
@@ -953,7 +953,7 @@
         <v>134.04413947932937</v>
       </c>
       <c r="D28" t="str">
-        <v>ＫＯＹＯセブンイレブン高松赤十字病院店</v>
+        <v>セブンイレブンＫＯＹＯ高松赤十字病院店</v>
       </c>
       <c r="E28" t="str">
         <v>番町4丁目1番3号</v>
@@ -2693,7 +2693,7 @@
         <v>134.06493769977706</v>
       </c>
       <c r="D115" t="str">
-        <v>工学部ショップ</v>
+        <v>創造工学部ショップ</v>
       </c>
       <c r="E115" t="str">
         <v>林町2217番地20</v>
@@ -3033,7 +3033,7 @@
         <v>134.0534402518585</v>
       </c>
       <c r="D132" t="str">
-        <v>米屋ながはら塩上店</v>
+        <v>米屋ながはら</v>
       </c>
       <c r="E132" t="str">
         <v>塩上町1丁目6番14号</v>
@@ -4013,7 +4013,7 @@
         <v>134.05937514068853</v>
       </c>
       <c r="D181" t="str">
-        <v>セブンイレブン高松今里店</v>
+        <v>セブンイレブン高松今里町店</v>
       </c>
       <c r="E181" t="str">
         <v>今里町一丁目16番地1</v>
@@ -5333,7 +5333,7 @@
         <v>134.04525964557078</v>
       </c>
       <c r="D247" t="str">
-        <v>ディスカウントドラッグコスモス上之町店</v>
+        <v>ドラッグストアコスモス上之町店</v>
       </c>
       <c r="E247" t="str">
         <v>上之町一丁目14番19号</v>
@@ -5353,7 +5353,7 @@
         <v>134.07029417318512</v>
       </c>
       <c r="D248" t="str">
-        <v>ディスカウントドラッグコスモス木太店</v>
+        <v>ドラッグストアコスモス木太店</v>
       </c>
       <c r="E248" t="str">
         <v>木太町1875番地2</v>
@@ -5373,7 +5373,7 @@
         <v>133.95118773390624</v>
       </c>
       <c r="D249" t="str">
-        <v>ディスカウントドラッグコスモス国分寺店</v>
+        <v>ドラッグストアコスモス国分寺店</v>
       </c>
       <c r="E249" t="str">
         <v>国分寺町国分458番地1</v>
@@ -5393,7 +5393,7 @@
         <v>134.02251462718104</v>
       </c>
       <c r="D250" t="str">
-        <v>ディスカウントドラッグコスモス高松西町店</v>
+        <v>ドラッグストアコスモス高松西町店</v>
       </c>
       <c r="E250" t="str">
         <v>西町774番2号</v>
@@ -5413,7 +5413,7 @@
         <v>134.05344118790228</v>
       </c>
       <c r="D251" t="str">
-        <v>ディスカウントドラッグコスモス多肥上町店</v>
+        <v>ドラッグストアコスモス多肥上町店</v>
       </c>
       <c r="E251" t="str">
         <v>多肥上町1182番地1</v>
@@ -5433,7 +5433,7 @@
         <v>134.033563894062</v>
       </c>
       <c r="D252" t="str">
-        <v>ディスカウントドラッグコスモス西ハゼ店</v>
+        <v>ドラッグストアコスモス西ハゼ店</v>
       </c>
       <c r="E252" t="str">
         <v>西ハゼ町120番地2</v>
@@ -5453,7 +5453,7 @@
         <v>133.9613356032435</v>
       </c>
       <c r="D253" t="str">
-        <v>ディスカウントドラッグコスモス福家店</v>
+        <v>ドラッグストアコスモス福家店</v>
       </c>
       <c r="E253" t="str">
         <v>国分寺町福家甲3195番地1</v>
@@ -5473,7 +5473,7 @@
         <v>134.0355996093876</v>
       </c>
       <c r="D254" t="str">
-        <v>ディスカウントドラッグコスモス仏生山店</v>
+        <v>ドラッグストアコスモス仏生山店</v>
       </c>
       <c r="E254" t="str">
         <v>仏生山町甲1467番地</v>
@@ -5493,7 +5493,7 @@
         <v>134.13009943700024</v>
       </c>
       <c r="D255" t="str">
-        <v>ディスカウントドラッグコスモス牟礼店</v>
+        <v>ドラッグストアコスモス牟礼店</v>
       </c>
       <c r="E255" t="str">
         <v>牟礼町牟礼956番地</v>
@@ -5513,7 +5513,7 @@
         <v>134.08242311839467</v>
       </c>
       <c r="D256" t="str">
-        <v>ディスカウントドラッグコスモス元山店</v>
+        <v>ドラッグストアコスモス元山店</v>
       </c>
       <c r="E256" t="str">
         <v>元山町673番地</v>
@@ -5533,7 +5533,7 @@
         <v>134.09431394581748</v>
       </c>
       <c r="D257" t="str">
-        <v>ディスカウントドラッグコスモス屋島西町店</v>
+        <v>ドラッグストアコスモス屋島西町店</v>
       </c>
       <c r="E257" t="str">
         <v>屋島西町1347番地7</v>
@@ -5553,7 +5553,7 @@
         <v>134.08881511247202</v>
       </c>
       <c r="D258" t="str">
-        <v>ディスカウントドラッグコスモス六条店</v>
+        <v>ドラッグストアコスモス六条店</v>
       </c>
       <c r="E258" t="str">
         <v>下田井町364番地1</v>
@@ -5713,7 +5713,7 @@
         <v>134.04892396276304</v>
       </c>
       <c r="D266" t="str">
-        <v>ドラッグセガミ田町店</v>
+        <v>ココカラファイン田町店</v>
       </c>
       <c r="E266" t="str">
         <v>田町1番地1</v>
@@ -6253,7 +6253,7 @@
         <v>134.10114159994657</v>
       </c>
       <c r="D293" t="str">
-        <v>パワーシティ屋島店B棟</v>
+        <v>パワーシティ屋島店</v>
       </c>
       <c r="E293" t="str">
         <v>屋島西町1907番地1</v>
@@ -7553,13 +7553,13 @@
         <v>134.01433037110624</v>
       </c>
       <c r="D358" t="str">
-        <v>フレッシュバリューミラクルタウン郷東店</v>
+        <v>ラ・ムー郷東店</v>
       </c>
       <c r="E358" t="str">
         <v>郷東町221番地1</v>
       </c>
       <c r="F358" t="str">
-        <v>832-8866</v>
+        <v>090-1767-2339</v>
       </c>
     </row>
     <row r="359">
@@ -7913,13 +7913,13 @@
         <v>134.0033552643527</v>
       </c>
       <c r="D376" t="str">
-        <v>マルナカ香西店</v>
+        <v>ホームセンターコーナン香西本町店</v>
       </c>
       <c r="E376" t="str">
         <v>香西本町1番地176</v>
       </c>
       <c r="F376" t="str">
-        <v>870-5233</v>
+        <v>842-5701</v>
       </c>
     </row>
     <row r="377">
@@ -9313,13 +9313,13 @@
         <v>134.07844084226537</v>
       </c>
       <c r="D446" t="str">
-        <v>ゆめマート木太</v>
+        <v>エースワン高松木太店</v>
       </c>
       <c r="E446" t="str">
         <v>木太町2442番地1</v>
       </c>
       <c r="F446" t="str">
-        <v>832-5510</v>
+        <v>812-1177</v>
       </c>
     </row>
     <row r="447">
@@ -9433,7 +9433,7 @@
         <v>134.10967982447283</v>
       </c>
       <c r="D452" t="str">
-        <v>レデイ薬局十川店</v>
+        <v>くすりのレデイ十川店</v>
       </c>
       <c r="E452" t="str">
         <v>十川東町55番地1</v>

--- a/data/list_of_designated_collection_bag_dealers/data.xlsx
+++ b/data/list_of_designated_collection_bag_dealers/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F503"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10462,9 +10462,209 @@
         <v>845-2731</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>533</v>
+      </c>
+      <c r="B504" t="str">
+        <v>34.32305988</v>
+      </c>
+      <c r="C504" t="str">
+        <v>134.0563157</v>
+      </c>
+      <c r="D504" t="str">
+        <v>ウエルシア高松今里店</v>
+      </c>
+      <c r="E504" t="str">
+        <v>今里町10番地１</v>
+      </c>
+      <c r="F504" t="str">
+        <v>869-7220</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>534</v>
+      </c>
+      <c r="B505" t="str">
+        <v>34.27820472</v>
+      </c>
+      <c r="C505" t="str">
+        <v>134.0670443</v>
+      </c>
+      <c r="D505" t="str">
+        <v>ウエルシア高松三谷店</v>
+      </c>
+      <c r="E505" t="str">
+        <v>三谷町1232番地1</v>
+      </c>
+      <c r="F505" t="str">
+        <v>815-5101</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>535</v>
+      </c>
+      <c r="B506" t="str">
+        <v>34.30092718</v>
+      </c>
+      <c r="C506" t="str">
+        <v>134.03796115266903</v>
+      </c>
+      <c r="D506" t="str">
+        <v>ウエルシア高松鹿角店</v>
+      </c>
+      <c r="E506" t="str">
+        <v>鹿角町170番地4</v>
+      </c>
+      <c r="F506" t="str">
+        <v>815-0161</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>536</v>
+      </c>
+      <c r="B507" t="str">
+        <v>34.31453165</v>
+      </c>
+      <c r="C507" t="str">
+        <v>134.0377625</v>
+      </c>
+      <c r="D507" t="str">
+        <v>ホームセンターコーナン上天神中央通店</v>
+      </c>
+      <c r="E507" t="str">
+        <v>上天神町159番地1</v>
+      </c>
+      <c r="F507" t="str">
+        <v>864-5760</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>537</v>
+      </c>
+      <c r="B508" t="str">
+        <v>34.2937623</v>
+      </c>
+      <c r="C508" t="str">
+        <v>134.0497846</v>
+      </c>
+      <c r="D508" t="str">
+        <v>ホームセンターコーナン多肥店</v>
+      </c>
+      <c r="E508" t="str">
+        <v>多肥上町1021番地1</v>
+      </c>
+      <c r="F508" t="str">
+        <v>815-5711</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>538</v>
+      </c>
+      <c r="B509" t="str">
+        <v>34.33728525</v>
+      </c>
+      <c r="C509" t="str">
+        <v>134.0490472</v>
+      </c>
+      <c r="D509" t="str">
+        <v>セブンイレブン高松田町店</v>
+      </c>
+      <c r="E509" t="str">
+        <v>田町11番地5</v>
+      </c>
+      <c r="F509" t="str">
+        <v>862-6711</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>539</v>
+      </c>
+      <c r="B510" t="str">
+        <v>34.340441</v>
+      </c>
+      <c r="C510" t="str">
+        <v>134.0651295</v>
+      </c>
+      <c r="D510" t="str">
+        <v>松島コミュニティセンター</v>
+      </c>
+      <c r="E510" t="str">
+        <v>松福町二丁目15番24号</v>
+      </c>
+      <c r="F510" t="str">
+        <v>821-0435</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>540</v>
+      </c>
+      <c r="B511" t="str">
+        <v>34.29202748</v>
+      </c>
+      <c r="C511" t="str">
+        <v>134.1228395</v>
+      </c>
+      <c r="D511" t="str">
+        <v>オアシスプラザ香川大学医学部附属病院店</v>
+      </c>
+      <c r="E511" t="str">
+        <v>木田郡三木町大字池戸1750番地1</v>
+      </c>
+      <c r="F511" t="str">
+        <v>087-891-9185</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>541</v>
+      </c>
+      <c r="B512" t="str">
+        <v>34.34597226</v>
+      </c>
+      <c r="C512" t="str">
+        <v>134.0515411</v>
+      </c>
+      <c r="D512" t="str">
+        <v>セブンイレブン高松ホテル川六店</v>
+      </c>
+      <c r="E512" t="str">
+        <v>百間町1番地2</v>
+      </c>
+      <c r="F512" t="str">
+        <v>822-6778</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>542</v>
+      </c>
+      <c r="B513" t="str">
+        <v>34.27507995</v>
+      </c>
+      <c r="C513" t="str">
+        <v>134.0269979</v>
+      </c>
+      <c r="D513" t="str">
+        <v>セブンイレブン高松寺井町店</v>
+      </c>
+      <c r="E513" t="str">
+        <v>寺井町981番地6</v>
+      </c>
+      <c r="F513" t="str">
+        <v>886-7771</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F503"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F513"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/list_of_designated_collection_bag_dealers/data.xlsx
+++ b/data/list_of_designated_collection_bag_dealers/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F503"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10462,9 +10462,209 @@
         <v>845-2731</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>533</v>
+      </c>
+      <c r="B504" t="str">
+        <v>34.3230598827457</v>
+      </c>
+      <c r="C504" t="str">
+        <v>134.056315696368</v>
+      </c>
+      <c r="D504" t="str">
+        <v>ウエルシア高松今里店</v>
+      </c>
+      <c r="E504" t="str">
+        <v>今里町10番地１</v>
+      </c>
+      <c r="F504" t="str">
+        <v>869-7220</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>534</v>
+      </c>
+      <c r="B505" t="str">
+        <v>34.2782047191483</v>
+      </c>
+      <c r="C505" t="str">
+        <v>134.067044340546</v>
+      </c>
+      <c r="D505" t="str">
+        <v>ウエルシア高松三谷店</v>
+      </c>
+      <c r="E505" t="str">
+        <v>三谷町1232番地1</v>
+      </c>
+      <c r="F505" t="str">
+        <v>815-5101</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>535</v>
+      </c>
+      <c r="B506" t="str">
+        <v>34.3009271807866</v>
+      </c>
+      <c r="C506" t="str">
+        <v>134.03796115266903</v>
+      </c>
+      <c r="D506" t="str">
+        <v>ウエルシア高松鹿角店</v>
+      </c>
+      <c r="E506" t="str">
+        <v>鹿角町170番地4</v>
+      </c>
+      <c r="F506" t="str">
+        <v>815-0161</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>536</v>
+      </c>
+      <c r="B507" t="str">
+        <v>34.314531650272</v>
+      </c>
+      <c r="C507" t="str">
+        <v>134.037762494998</v>
+      </c>
+      <c r="D507" t="str">
+        <v>ホームセンターコーナン上天神中央通店</v>
+      </c>
+      <c r="E507" t="str">
+        <v>上天神町159番地1</v>
+      </c>
+      <c r="F507" t="str">
+        <v>864-5760</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>537</v>
+      </c>
+      <c r="B508" t="str">
+        <v>34.2937623028842</v>
+      </c>
+      <c r="C508" t="str">
+        <v>134.049784552668</v>
+      </c>
+      <c r="D508" t="str">
+        <v>ホームセンターコーナン多肥店</v>
+      </c>
+      <c r="E508" t="str">
+        <v>多肥上町1021番地1</v>
+      </c>
+      <c r="F508" t="str">
+        <v>815-5711</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>538</v>
+      </c>
+      <c r="B509" t="str">
+        <v>34.3372852481663</v>
+      </c>
+      <c r="C509" t="str">
+        <v>134.049047237533</v>
+      </c>
+      <c r="D509" t="str">
+        <v>セブンイレブン高松田町店</v>
+      </c>
+      <c r="E509" t="str">
+        <v>田町11番地5</v>
+      </c>
+      <c r="F509" t="str">
+        <v>862-6711</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>539</v>
+      </c>
+      <c r="B510" t="str">
+        <v>34.3404410022536</v>
+      </c>
+      <c r="C510" t="str">
+        <v>134.065129481507</v>
+      </c>
+      <c r="D510" t="str">
+        <v>松島コミュニティセンター</v>
+      </c>
+      <c r="E510" t="str">
+        <v>松福町二丁目15番24号</v>
+      </c>
+      <c r="F510" t="str">
+        <v>821-0435</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>540</v>
+      </c>
+      <c r="B511" t="str">
+        <v>34.2920274813291</v>
+      </c>
+      <c r="C511" t="str">
+        <v>134.122839494996</v>
+      </c>
+      <c r="D511" t="str">
+        <v>オアシスプラザ香川大学医学部附属病院店</v>
+      </c>
+      <c r="E511" t="str">
+        <v>木田郡三木町大字池戸1750番地1</v>
+      </c>
+      <c r="F511" t="str">
+        <v>087-891-9185</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>541</v>
+      </c>
+      <c r="B512" t="str">
+        <v>34.3459722629068</v>
+      </c>
+      <c r="C512" t="str">
+        <v>134.051541066163</v>
+      </c>
+      <c r="D512" t="str">
+        <v>セブンイレブン高松ホテル川六店</v>
+      </c>
+      <c r="E512" t="str">
+        <v>百間町1番地2</v>
+      </c>
+      <c r="F512" t="str">
+        <v>822-6778</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>542</v>
+      </c>
+      <c r="B513" t="str">
+        <v>34.2750799536853</v>
+      </c>
+      <c r="C513" t="str">
+        <v>134.02699793877</v>
+      </c>
+      <c r="D513" t="str">
+        <v>セブンイレブン高松寺井町店</v>
+      </c>
+      <c r="E513" t="str">
+        <v>寺井町981番地6</v>
+      </c>
+      <c r="F513" t="str">
+        <v>886-7771</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F503"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F513"/>
   </ignoredErrors>
 </worksheet>
 </file>